--- a/Data/Consum_Prod_Raw.xlsx
+++ b/Data/Consum_Prod_Raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EE60C9-87C7-438B-A37B-C08C78CF87BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7CC831-225B-4B42-86DA-DAB672F2D310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{03761CB4-CF90-48E1-A53B-8F9564E2FED9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="14">
   <si>
     <t>World</t>
   </si>
@@ -6661,10 +6661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397DA1E-3177-4642-A317-82D4223BF1F7}">
-  <dimension ref="B3:D209"/>
+  <dimension ref="B3:D470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:XFD184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6673,1824 +6673,5148 @@
       <c r="B3">
         <v>1980</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3">
-        <v>63987.8</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1980</v>
+      </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1980</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1980</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1980</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1980</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1980</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1980</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1980</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>5332.3166666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1981</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D15" si="0">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5332.3166666666666</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1981</v>
       </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
       <c r="D16">
-        <v>60602</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1981</v>
+      </c>
       <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1981</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1981</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1981</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1981</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1981</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1981</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1981</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1981</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1981</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>5050.166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1982</v>
+      </c>
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="D27">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1982</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D28" si="1">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>5332.3166666666666</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1982</v>
       </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
       <c r="D29">
-        <v>58100.1</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1982</v>
+      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1982</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1982</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1982</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1982</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1982</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1982</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1982</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>4841.6750000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1983</v>
+      </c>
+      <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D30">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+      <c r="D39">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1983</v>
+      </c>
+      <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D41" si="2">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+      <c r="D40">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1983</v>
+      </c>
+      <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>5332.3166666666666</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1983</v>
       </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
       <c r="D42">
-        <v>57929.3</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1983</v>
+      </c>
       <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1983</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1983</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1983</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1983</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1983</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1983</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1983</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>4827.4416666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1984</v>
+      </c>
+      <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D43">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+      <c r="D51">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1984</v>
+      </c>
+      <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="D44">
-        <f t="shared" ref="D44:D54" si="3">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+      <c r="D52">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1984</v>
+      </c>
+      <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+      <c r="D53">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1984</v>
+      </c>
+      <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
       <c r="D54">
-        <f t="shared" si="3"/>
-        <v>5332.3166666666666</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1984</v>
       </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
       <c r="D55">
-        <v>59563.457939890999</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1984</v>
+      </c>
       <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1984</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1984</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1984</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1984</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1984</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1984</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>4963.6214949909163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1985</v>
+      </c>
+      <c r="C63" t="s">
         <v>2</v>
       </c>
-      <c r="D56">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
+      <c r="D63">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1985</v>
+      </c>
+      <c r="C64" t="s">
         <v>3</v>
       </c>
-      <c r="D57">
-        <f t="shared" ref="D57:D67" si="4">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
+      <c r="D64">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="s">
         <v>4</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+      <c r="D65">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1985</v>
+      </c>
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+      <c r="D66">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1985</v>
+      </c>
+      <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
       <c r="D67">
-        <f t="shared" si="4"/>
-        <v>5332.3166666666666</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>1985</v>
       </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
       <c r="D68">
-        <v>59156.125429840002</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1985</v>
+      </c>
       <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1985</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1985</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1985</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1985</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1985</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>4929.6771191533335</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1986</v>
+      </c>
+      <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D69">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+      <c r="D75">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1986</v>
+      </c>
+      <c r="C76" t="s">
         <v>3</v>
       </c>
-      <c r="D70">
-        <f t="shared" ref="D70:D80" si="5">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+      <c r="D76">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1986</v>
+      </c>
+      <c r="C77" t="s">
         <v>4</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+      <c r="D77">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1986</v>
+      </c>
+      <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+      <c r="D78">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1986</v>
+      </c>
+      <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+      <c r="D79">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1986</v>
+      </c>
+      <c r="C80" t="s">
         <v>7</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
       <c r="D80">
-        <f t="shared" si="5"/>
-        <v>5332.3166666666666</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>1986</v>
       </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
       <c r="D81">
-        <v>61534.957680462998</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1986</v>
+      </c>
       <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1986</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1986</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1986</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1986</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>5127.9131400385832</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1987</v>
+      </c>
+      <c r="C87" t="s">
         <v>2</v>
       </c>
-      <c r="D82">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+      <c r="D87">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1987</v>
+      </c>
+      <c r="C88" t="s">
         <v>3</v>
       </c>
-      <c r="D83">
-        <f t="shared" ref="D83:D93" si="6">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+      <c r="D88">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1987</v>
+      </c>
+      <c r="C89" t="s">
         <v>4</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+      <c r="D89">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1987</v>
+      </c>
+      <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+      <c r="D90">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1987</v>
+      </c>
+      <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+      <c r="D91">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1987</v>
+      </c>
+      <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+      <c r="D92">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1987</v>
+      </c>
+      <c r="C93" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
       <c r="D93">
-        <f t="shared" si="6"/>
-        <v>5332.3166666666666</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>1987</v>
       </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
       <c r="D94">
-        <v>62101.270443813999</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1987</v>
+      </c>
       <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1987</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1987</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1987</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>5175.1058703178333</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1988</v>
+      </c>
+      <c r="C99" t="s">
         <v>2</v>
       </c>
-      <c r="D95">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
+      <c r="D99">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1988</v>
+      </c>
+      <c r="C100" t="s">
         <v>3</v>
       </c>
-      <c r="D96">
-        <f t="shared" ref="D96:D106" si="7">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+      <c r="D100">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1988</v>
+      </c>
+      <c r="C101" t="s">
         <v>4</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+      <c r="D101">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1988</v>
+      </c>
+      <c r="C102" t="s">
         <v>5</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+      <c r="D102">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1988</v>
+      </c>
+      <c r="C103" t="s">
         <v>6</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+      <c r="D103">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1988</v>
+      </c>
+      <c r="C104" t="s">
         <v>7</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+      <c r="D104">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1988</v>
+      </c>
+      <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+      <c r="D105">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1988</v>
+      </c>
+      <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
       <c r="D106">
-        <f t="shared" si="7"/>
-        <v>5332.3166666666666</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>1988</v>
       </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
       <c r="D107">
-        <v>64398.731705721999</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1988</v>
+      </c>
       <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1988</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1988</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>5366.5609754768329</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1989</v>
+      </c>
+      <c r="C111" t="s">
         <v>2</v>
       </c>
-      <c r="D108">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+      <c r="D111">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1989</v>
+      </c>
+      <c r="C112" t="s">
         <v>3</v>
       </c>
-      <c r="D109">
-        <f t="shared" ref="D109:D119" si="8">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+      <c r="D112">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1989</v>
+      </c>
+      <c r="C113" t="s">
         <v>4</v>
       </c>
-      <c r="D110">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+      <c r="D113">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1989</v>
+      </c>
+      <c r="C114" t="s">
         <v>5</v>
       </c>
-      <c r="D111">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+      <c r="D114">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1989</v>
+      </c>
+      <c r="C115" t="s">
         <v>6</v>
       </c>
-      <c r="D112">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+      <c r="D115">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1989</v>
+      </c>
+      <c r="C116" t="s">
         <v>7</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+      <c r="D116">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1989</v>
+      </c>
+      <c r="C117" t="s">
         <v>8</v>
       </c>
-      <c r="D114">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+      <c r="D117">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1989</v>
+      </c>
+      <c r="C118" t="s">
         <v>9</v>
       </c>
-      <c r="D115">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+      <c r="D118">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1989</v>
+      </c>
+      <c r="C119" t="s">
         <v>10</v>
       </c>
-      <c r="D116">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
       <c r="D119">
-        <f t="shared" si="8"/>
-        <v>5332.3166666666666</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>1989</v>
       </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
       <c r="D120">
-        <v>65524.911263148999</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1989</v>
+      </c>
       <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1989</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>5460.4092719290829</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1990</v>
+      </c>
+      <c r="C123" t="s">
         <v>2</v>
       </c>
-      <c r="D121">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+      <c r="D123">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1990</v>
+      </c>
+      <c r="C124" t="s">
         <v>3</v>
       </c>
-      <c r="D122">
-        <f t="shared" ref="D122:D132" si="9">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+      <c r="D124">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1990</v>
+      </c>
+      <c r="C125" t="s">
         <v>4</v>
       </c>
-      <c r="D123">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+      <c r="D125">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1990</v>
+      </c>
+      <c r="C126" t="s">
         <v>5</v>
       </c>
-      <c r="D124">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
+      <c r="D126">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1990</v>
+      </c>
+      <c r="C127" t="s">
         <v>6</v>
       </c>
-      <c r="D125">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
+      <c r="D127">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1990</v>
+      </c>
+      <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D126">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
+      <c r="D128">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1990</v>
+      </c>
+      <c r="C129" t="s">
         <v>8</v>
       </c>
-      <c r="D127">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+      <c r="D129">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1990</v>
+      </c>
+      <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D128">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+      <c r="D130">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1990</v>
+      </c>
+      <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D129">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+      <c r="D131">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1990</v>
+      </c>
+      <c r="C132" t="s">
         <v>11</v>
       </c>
-      <c r="D130">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
       <c r="D132">
-        <f t="shared" si="9"/>
-        <v>5332.3166666666666</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>1990</v>
       </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
       <c r="D133">
-        <v>66437.183905811995</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1990</v>
+      </c>
       <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>5536.4319921509996</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1991</v>
+      </c>
+      <c r="C135" t="s">
         <v>2</v>
       </c>
-      <c r="D134">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+      <c r="D135">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1991</v>
+      </c>
+      <c r="C136" t="s">
         <v>3</v>
       </c>
-      <c r="D135">
-        <f t="shared" ref="D135:D145" si="10">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
+      <c r="D136">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1991</v>
+      </c>
+      <c r="C137" t="s">
         <v>4</v>
       </c>
-      <c r="D136">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+      <c r="D137">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1991</v>
+      </c>
+      <c r="C138" t="s">
         <v>5</v>
       </c>
-      <c r="D137">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+      <c r="D138">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1991</v>
+      </c>
+      <c r="C139" t="s">
         <v>6</v>
       </c>
-      <c r="D138">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
+      <c r="D139">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1991</v>
+      </c>
+      <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D139">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+      <c r="D140">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1991</v>
+      </c>
+      <c r="C141" t="s">
         <v>8</v>
       </c>
-      <c r="D140">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+      <c r="D141">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1991</v>
+      </c>
+      <c r="C142" t="s">
         <v>9</v>
       </c>
-      <c r="D141">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
+      <c r="D142">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1991</v>
+      </c>
+      <c r="C143" t="s">
         <v>10</v>
       </c>
-      <c r="D142">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+      <c r="D143">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1991</v>
+      </c>
+      <c r="C144" t="s">
         <v>11</v>
       </c>
-      <c r="D143">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+      <c r="D144">
+        <v>5528.2375914284166</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1991</v>
+      </c>
+      <c r="C145" t="s">
         <v>12</v>
       </c>
-      <c r="D144">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
       <c r="D145">
-        <f t="shared" si="10"/>
-        <v>5332.3166666666666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>1991</v>
       </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
       <c r="D146">
-        <v>66338.851097141</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1992</v>
+      </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
       <c r="D147">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>1992</v>
+      </c>
       <c r="C148" t="s">
         <v>3</v>
       </c>
       <c r="D148">
-        <f t="shared" ref="D148:D158" si="11">D$3/12</f>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1992</v>
+      </c>
       <c r="C149" t="s">
         <v>4</v>
       </c>
       <c r="D149">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1992</v>
+      </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1992</v>
+      </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1992</v>
+      </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1992</v>
+      </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
       <c r="D153">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1992</v>
+      </c>
       <c r="C154" t="s">
         <v>9</v>
       </c>
       <c r="D154">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1992</v>
+      </c>
       <c r="C155" t="s">
         <v>10</v>
       </c>
       <c r="D155">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1992</v>
+      </c>
       <c r="C156" t="s">
         <v>11</v>
       </c>
       <c r="D156">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>1992</v>
+      </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1992</v>
+      </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="D158">
-        <f t="shared" si="11"/>
-        <v>5332.3166666666666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159">
-        <v>1992</v>
+        <v>1993</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>66551.970174706003</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1993</v>
+      </c>
       <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1993</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1993</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1993</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1993</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1993</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1993</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1993</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1993</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1993</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>1993</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>5591.9719411987498</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1994</v>
+      </c>
+      <c r="C171" t="s">
         <v>2</v>
       </c>
-      <c r="D160">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C161" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161">
-        <f t="shared" ref="D161:D171" si="12">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C170" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
-        <v>13</v>
-      </c>
       <c r="D171">
-        <f t="shared" si="12"/>
-        <v>5332.3166666666666</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172">
-        <v>1993</v>
+        <v>1994</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>67103.663294384998</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1994</v>
+      </c>
       <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1994</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1994</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1994</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>1994</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1994</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1994</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1994</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1994</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1994</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182">
+        <v>5719.92399543375</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1995</v>
+      </c>
+      <c r="C183" t="s">
         <v>2</v>
       </c>
-      <c r="D173">
-        <f>D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+      <c r="D183">
+        <v>5858.8406621004169</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1995</v>
+      </c>
+      <c r="C184" t="s">
         <v>3</v>
       </c>
-      <c r="D174">
-        <f t="shared" ref="D174:D184" si="13">D$3/12</f>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C175" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C181" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C184" t="s">
-        <v>13</v>
-      </c>
       <c r="D184">
-        <f t="shared" si="13"/>
-        <v>5332.3166666666666</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185">
-        <v>1994</v>
+        <v>1995</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>68639.087945204999</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>1995</v>
       </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
       <c r="D186">
-        <v>70306.087945204999</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187">
-        <v>1996</v>
+        <v>1995</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
       </c>
       <c r="D187">
-        <v>71985.654371584998</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188">
-        <v>1997</v>
+        <v>1995</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
       </c>
       <c r="D188">
-        <v>74220.316164383999</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189">
-        <v>1998</v>
+        <v>1995</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
       </c>
       <c r="D189">
-        <v>75682.895068493002</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190">
-        <v>1999</v>
+        <v>1995</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
       </c>
       <c r="D190">
-        <v>74840.069315068002</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191">
-        <v>2000</v>
+        <v>1995</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
       </c>
       <c r="D191">
-        <v>77729.131016622006</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192">
-        <v>2001</v>
+        <v>1995</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>77673.206026219006</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193">
-        <v>2002</v>
+        <v>1995</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
       </c>
       <c r="D193">
-        <v>77103.671612926002</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194">
-        <v>2003</v>
+        <v>1995</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
       </c>
       <c r="D194">
-        <v>79623.389394355007</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195">
-        <v>2004</v>
+        <v>1996</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>83450.075039928997</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196">
-        <v>2005</v>
+        <v>1996</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>85118.207460274003</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197">
-        <v>2006</v>
+        <v>1996</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
       </c>
       <c r="D197">
-        <v>85242.566435615998</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198">
-        <v>2007</v>
+        <v>1996</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>85311.062871233007</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199">
-        <v>2008</v>
+        <v>1996</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>86667.184999999998</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200">
-        <v>2009</v>
+        <v>1996</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
       </c>
       <c r="D200">
-        <v>85869.801764383999</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201">
-        <v>2010</v>
+        <v>1996</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
       </c>
       <c r="D201">
-        <v>88570.638238355998</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202">
-        <v>2011</v>
+        <v>1996</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
       </c>
       <c r="D202">
-        <v>89038.114490410997</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203">
-        <v>2012</v>
+        <v>1996</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
       </c>
       <c r="D203">
-        <v>91092.260442622995</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204">
-        <v>2013</v>
+        <v>1996</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
       </c>
       <c r="D204">
-        <v>91694.670068492997</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205">
-        <v>2014</v>
+        <v>1996</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
       </c>
       <c r="D205">
-        <v>94277.091071232993</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206">
-        <v>2015</v>
+        <v>1996</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
       </c>
       <c r="D206">
-        <v>97105.090761643994</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207">
-        <v>2016</v>
+        <v>1997</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>97510.982609290004</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208">
-        <v>2017</v>
+        <v>1997</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>98118.466150684995</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209">
+        <v>1997</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1997</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1997</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1997</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1997</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>1997</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>1997</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1997</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>1997</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1997</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218">
+        <v>6185.0263470319996</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1998</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>1998</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>1998</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1998</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1998</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1998</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>1998</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>1998</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1998</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>1998</v>
+      </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>1998</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1998</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230">
+        <v>6306.9079223744166</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1999</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1999</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1999</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>1999</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1999</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1999</v>
+      </c>
+      <c r="C236" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1999</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>1999</v>
+      </c>
+      <c r="C238" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>1999</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1999</v>
+      </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1999</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>1999</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>6236.6724429223332</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>2000</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>2000</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>2000</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>2000</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>2000</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>2000</v>
+      </c>
+      <c r="C248" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>2000</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>2000</v>
+      </c>
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>2000</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>2000</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>2000</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>2000</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254">
+        <v>6477.4275847185008</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>2001</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>2001</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>2001</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>2001</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>2001</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>2001</v>
+      </c>
+      <c r="C260" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>2001</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>2001</v>
+      </c>
+      <c r="C262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>2001</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>2001</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>2001</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>2001</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266">
+        <v>6472.7671688515838</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>2002</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>2002</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>2002</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>2002</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>2002</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>2002</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>2002</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>2002</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>2002</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>2002</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>2002</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>2002</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278">
+        <v>6425.3059677438332</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>2003</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>2003</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>2003</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>2003</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>2003</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>2003</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>2003</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>2003</v>
+      </c>
+      <c r="C286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>2003</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>2003</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>2003</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>2003</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290">
+        <v>6635.2824495295836</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>2004</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>2004</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>2004</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>2004</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>2004</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>2004</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>2004</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>2004</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>2004</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>2004</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
+      <c r="D300">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>2004</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>2004</v>
+      </c>
+      <c r="C302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302">
+        <v>6954.1729199940828</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>2005</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>2005</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>2005</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>2005</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>2005</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>2005</v>
+      </c>
+      <c r="C308" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>2005</v>
+      </c>
+      <c r="C309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>2005</v>
+      </c>
+      <c r="C310" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>2005</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>2005</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>2005</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>2005</v>
+      </c>
+      <c r="C314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D314">
+        <v>7093.1839550228333</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>2006</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>2006</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>2006</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>2006</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>2006</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>2006</v>
+      </c>
+      <c r="C320" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>2006</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>2006</v>
+      </c>
+      <c r="C322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>2006</v>
+      </c>
+      <c r="C323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>2006</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>2006</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>2006</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326">
+        <v>7103.5472029679995</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>2007</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>2007</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>2007</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>2007</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>2007</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>2007</v>
+      </c>
+      <c r="C332" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>2007</v>
+      </c>
+      <c r="C333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>2007</v>
+      </c>
+      <c r="C334" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>2007</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>2007</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>2007</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>2007</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338">
+        <v>7109.255239269417</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>2008</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>2008</v>
+      </c>
+      <c r="C340" t="s">
+        <v>3</v>
+      </c>
+      <c r="D340">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>2008</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>2008</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>2008</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>2008</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>2008</v>
+      </c>
+      <c r="C345" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>2008</v>
+      </c>
+      <c r="C346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>2008</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>2008</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>2008</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>2008</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350">
+        <v>7222.2654166666662</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>2009</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>2009</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>2009</v>
+      </c>
+      <c r="C353" t="s">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>2009</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>2009</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>2009</v>
+      </c>
+      <c r="C356" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>2009</v>
+      </c>
+      <c r="C357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>2009</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>2009</v>
+      </c>
+      <c r="C359" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>2009</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>2009</v>
+      </c>
+      <c r="C361" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>2009</v>
+      </c>
+      <c r="C362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D362">
+        <v>7155.8168136986669</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>2010</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>2010</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3</v>
+      </c>
+      <c r="D364">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>2010</v>
+      </c>
+      <c r="C365" t="s">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>2010</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>2010</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>2010</v>
+      </c>
+      <c r="C368" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>2010</v>
+      </c>
+      <c r="C369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>2010</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>2010</v>
+      </c>
+      <c r="C371" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>2010</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>2010</v>
+      </c>
+      <c r="C373" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>2010</v>
+      </c>
+      <c r="C374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374">
+        <v>7380.8865198630001</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>2011</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>2011</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3</v>
+      </c>
+      <c r="D376">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>2011</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>2011</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>2011</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>2011</v>
+      </c>
+      <c r="C380" t="s">
+        <v>7</v>
+      </c>
+      <c r="D380">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>2011</v>
+      </c>
+      <c r="C381" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>2011</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>2011</v>
+      </c>
+      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>2011</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>2011</v>
+      </c>
+      <c r="C385" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>2011</v>
+      </c>
+      <c r="C386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386">
+        <v>7419.8428742009164</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>2012</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>2012</v>
+      </c>
+      <c r="C388" t="s">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>2012</v>
+      </c>
+      <c r="C389" t="s">
+        <v>4</v>
+      </c>
+      <c r="D389">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>2012</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>2012</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>2012</v>
+      </c>
+      <c r="C392" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>2012</v>
+      </c>
+      <c r="C393" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>2012</v>
+      </c>
+      <c r="C394" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>2012</v>
+      </c>
+      <c r="C395" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>2012</v>
+      </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
+      <c r="D396">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>2012</v>
+      </c>
+      <c r="C397" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>2012</v>
+      </c>
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398">
+        <v>7591.0217035519163</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>2013</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>2013</v>
+      </c>
+      <c r="C400" t="s">
+        <v>3</v>
+      </c>
+      <c r="D400">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>2013</v>
+      </c>
+      <c r="C401" t="s">
+        <v>4</v>
+      </c>
+      <c r="D401">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>2013</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>2013</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>2013</v>
+      </c>
+      <c r="C404" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>2013</v>
+      </c>
+      <c r="C405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>2013</v>
+      </c>
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>2013</v>
+      </c>
+      <c r="C407" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>2013</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>2013</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>2013</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410">
+        <v>7641.2225057077494</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>2014</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>2014</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3</v>
+      </c>
+      <c r="D412">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>2014</v>
+      </c>
+      <c r="C413" t="s">
+        <v>4</v>
+      </c>
+      <c r="D413">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>2014</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>2014</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>2014</v>
+      </c>
+      <c r="C416" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>2014</v>
+      </c>
+      <c r="C417" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>2014</v>
+      </c>
+      <c r="C418" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>2014</v>
+      </c>
+      <c r="C419" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>2014</v>
+      </c>
+      <c r="C420" t="s">
+        <v>11</v>
+      </c>
+      <c r="D420">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>2014</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>2014</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422">
+        <v>7856.4242559360828</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>2015</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>2015</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
+      </c>
+      <c r="D424">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>2015</v>
+      </c>
+      <c r="C425" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>2015</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>2015</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>2015</v>
+      </c>
+      <c r="C428" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>2015</v>
+      </c>
+      <c r="C429" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>2015</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>2015</v>
+      </c>
+      <c r="C431" t="s">
+        <v>10</v>
+      </c>
+      <c r="D431">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>2015</v>
+      </c>
+      <c r="C432" t="s">
+        <v>11</v>
+      </c>
+      <c r="D432">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>2015</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>2015</v>
+      </c>
+      <c r="C434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434">
+        <v>8092.0908968036665</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>2016</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2</v>
+      </c>
+      <c r="D435">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>2016</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3</v>
+      </c>
+      <c r="D436">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>2016</v>
+      </c>
+      <c r="C437" t="s">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>2016</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>2016</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>2016</v>
+      </c>
+      <c r="C440" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>2016</v>
+      </c>
+      <c r="C441" t="s">
+        <v>8</v>
+      </c>
+      <c r="D441">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>2016</v>
+      </c>
+      <c r="C442" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>2016</v>
+      </c>
+      <c r="C443" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>2016</v>
+      </c>
+      <c r="C444" t="s">
+        <v>11</v>
+      </c>
+      <c r="D444">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>2016</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>2016</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446">
+        <v>8125.9152174408337</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>2017</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2</v>
+      </c>
+      <c r="D447">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>2017</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+      <c r="D448">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>2017</v>
+      </c>
+      <c r="C449" t="s">
+        <v>4</v>
+      </c>
+      <c r="D449">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>2017</v>
+      </c>
+      <c r="C450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>2017</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B452">
+        <v>2017</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B453">
+        <v>2017</v>
+      </c>
+      <c r="C453" t="s">
+        <v>8</v>
+      </c>
+      <c r="D453">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B454">
+        <v>2017</v>
+      </c>
+      <c r="C454" t="s">
+        <v>9</v>
+      </c>
+      <c r="D454">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B455">
+        <v>2017</v>
+      </c>
+      <c r="C455" t="s">
+        <v>10</v>
+      </c>
+      <c r="D455">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B456">
+        <v>2017</v>
+      </c>
+      <c r="C456" t="s">
+        <v>11</v>
+      </c>
+      <c r="D456">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B457">
+        <v>2017</v>
+      </c>
+      <c r="C457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B458">
+        <v>2017</v>
+      </c>
+      <c r="C458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458">
+        <v>8176.5388458904163</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B459">
         <v>2018</v>
       </c>
-      <c r="D209">
-        <v>100852.58009315</v>
+      <c r="C459" t="s">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B460">
+        <v>2018</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3</v>
+      </c>
+      <c r="D460">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B461">
+        <v>2018</v>
+      </c>
+      <c r="C461" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B462">
+        <v>2018</v>
+      </c>
+      <c r="C462" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B463">
+        <v>2018</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B464">
+        <v>2018</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B465">
+        <v>2018</v>
+      </c>
+      <c r="C465" t="s">
+        <v>8</v>
+      </c>
+      <c r="D465">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B466">
+        <v>2018</v>
+      </c>
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B467">
+        <v>2018</v>
+      </c>
+      <c r="C467" t="s">
+        <v>10</v>
+      </c>
+      <c r="D467">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B468">
+        <v>2018</v>
+      </c>
+      <c r="C468" t="s">
+        <v>11</v>
+      </c>
+      <c r="D468">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B469">
+        <v>2018</v>
+      </c>
+      <c r="C469" t="s">
+        <v>12</v>
+      </c>
+      <c r="D469">
+        <v>8404.3816744291671</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B470">
+        <v>2018</v>
+      </c>
+      <c r="C470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D470">
+        <v>8404.3816744291671</v>
       </c>
     </row>
   </sheetData>
